--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\cgam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EF8D55-3A2C-498A-9608-63ED24F90592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AA665-1EFA-4CAC-A36E-B633FCFB8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2070" windowWidth="18510" windowHeight="12270" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>key</t>
   </si>
@@ -322,10 +322,13 @@
     <t>Preheater</t>
   </si>
   <si>
-    <t>B2+B5</t>
-  </si>
-  <si>
-    <t>B6+B3</t>
+    <t>B5-B6</t>
+  </si>
+  <si>
+    <t>B3-B2</t>
+  </si>
+  <si>
+    <t>CGAMR</t>
   </si>
 </sst>
 </file>
@@ -842,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +865,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -870,15 +873,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -894,7 +897,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -902,7 +905,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -918,23 +921,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -942,18 +945,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +976,7 @@
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B14</xm:sqref>
+          <xm:sqref>B3:B13 B14 B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -985,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="334" zoomScaleNormal="334" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1138,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1152,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1171,296 +1174,335 @@
       <c r="G1" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
-        <v>B1</v>
+        <v>NG</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>82.710999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>83.963999999999999</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>83.688000000000002</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>82.710999999999999</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82.710999999999999</v>
+      </c>
+      <c r="H2">
+        <v>82.710999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
-        <v>B2</v>
+        <v>B1</v>
       </c>
       <c r="B3">
-        <v>28.510999999999999</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>29.338000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>29.096</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>29.062999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>28.311</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>28.510999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
-        <v>B3</v>
+        <v>B2</v>
       </c>
       <c r="B4">
-        <v>47.246000000000002</v>
+        <v>28.510999999999999</v>
       </c>
       <c r="C4">
-        <v>47.84</v>
+        <v>29.338000000000001</v>
       </c>
       <c r="D4">
-        <v>48.499000000000002</v>
+        <v>29.096</v>
       </c>
       <c r="E4">
-        <v>47.89</v>
+        <v>29.062999999999999</v>
       </c>
       <c r="F4">
-        <v>47.363999999999997</v>
+        <v>28.311</v>
       </c>
       <c r="G4">
-        <v>47.246000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28.510999999999999</v>
+      </c>
+      <c r="H4">
+        <v>28.510999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
-        <v>B4</v>
+        <v>B3</v>
       </c>
       <c r="B5">
-        <v>104.268</v>
+        <v>47.246000000000002</v>
       </c>
       <c r="C5">
-        <v>105.253</v>
+        <v>47.84</v>
       </c>
       <c r="D5">
-        <v>106.398</v>
+        <v>48.499000000000002</v>
       </c>
       <c r="E5">
-        <v>105.58799999999999</v>
+        <v>47.89</v>
       </c>
       <c r="F5">
-        <v>104.389</v>
+        <v>47.363999999999997</v>
       </c>
       <c r="G5">
-        <v>104.268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47.246000000000002</v>
+      </c>
+      <c r="H5">
+        <v>47.246000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Flows!A6</f>
-        <v>B5</v>
+        <v>B4</v>
       </c>
       <c r="B6">
-        <v>40.496000000000002</v>
+        <v>104.268</v>
       </c>
       <c r="C6">
-        <v>40.502000000000002</v>
+        <v>105.253</v>
       </c>
       <c r="D6">
-        <v>41.747</v>
+        <v>106.398</v>
       </c>
       <c r="E6">
-        <v>41.009</v>
+        <v>105.58799999999999</v>
       </c>
       <c r="F6">
-        <v>40.840000000000003</v>
+        <v>104.389</v>
       </c>
       <c r="G6">
-        <v>40.496000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104.268</v>
+      </c>
+      <c r="H6">
+        <v>104.268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Flows!A7</f>
-        <v>B6</v>
+        <v>B5</v>
       </c>
       <c r="B7">
-        <v>19.556999999999999</v>
+        <v>40.496000000000002</v>
       </c>
       <c r="C7">
-        <v>19.815000000000001</v>
+        <v>40.502000000000002</v>
       </c>
       <c r="D7">
-        <v>20.064</v>
+        <v>41.747</v>
       </c>
       <c r="E7">
-        <v>19.986000000000001</v>
+        <v>41.009</v>
       </c>
       <c r="F7">
-        <v>19.532</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="G7">
-        <v>19.556999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.496000000000002</v>
+      </c>
+      <c r="H7">
+        <v>40.496000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Flows!A8</f>
-        <v>B7</v>
+        <v>B6</v>
       </c>
       <c r="B8">
-        <v>2.0920000000000001</v>
+        <v>19.556999999999999</v>
       </c>
       <c r="C8">
-        <v>2.2069999999999999</v>
+        <v>19.815000000000001</v>
       </c>
       <c r="D8">
-        <v>2.1160000000000001</v>
+        <v>20.064</v>
       </c>
       <c r="E8">
-        <v>2.0870000000000002</v>
+        <v>19.986000000000001</v>
       </c>
       <c r="F8">
-        <v>2.11</v>
+        <v>19.532</v>
       </c>
       <c r="G8">
-        <v>2.1859999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19.556999999999999</v>
+      </c>
+      <c r="H8">
+        <v>19.556999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Flows!A9</f>
-        <v>B8</v>
+        <v>B7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="H9">
+        <v>19.556999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Flows!A10</f>
-        <v>B9</v>
+        <v>B8</v>
       </c>
       <c r="B10">
-        <v>12.625999999999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>12.744999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>12.97</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>12.930999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>12.599</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>12.512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Flows!A11</f>
-        <v>WN</v>
+        <v>B9</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>12.625999999999999</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>12.744999999999999</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>12.97</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>12.930999999999999</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>12.599</v>
       </c>
       <c r="G11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.512</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Flows!A12</f>
-        <v>WC</v>
+        <v>WN</v>
       </c>
       <c r="B12">
-        <v>31.096</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>31.998000000000001</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>31.734000000000002</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>31.87</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>30.890999999999998</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>31.096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Flows!A13</f>
-        <v>NG</v>
+        <v>WC</v>
       </c>
       <c r="B13">
-        <v>82.710999999999999</v>
+        <v>31.096</v>
       </c>
       <c r="C13">
-        <v>83.674000000000007</v>
+        <v>31.998000000000001</v>
       </c>
       <c r="D13">
-        <v>83.963999999999999</v>
+        <v>31.734000000000002</v>
       </c>
       <c r="E13">
-        <v>83.688000000000002</v>
+        <v>31.87</v>
       </c>
       <c r="F13">
-        <v>82.710999999999999</v>
+        <v>30.890999999999998</v>
       </c>
       <c r="G13">
-        <v>82.710999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31.096</v>
+      </c>
+      <c r="H13">
+        <v>31.096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Flows!A14</f>
         <v>QG</v>
@@ -1482,6 +1524,9 @@
       </c>
       <c r="G14">
         <v>2.1859999999999999</v>
+      </c>
+      <c r="H14">
+        <v>19.556999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1709,15 +1754,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1727,8 +1772,11 @@
       <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1738,8 +1786,11 @@
       <c r="C2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1749,8 +1800,11 @@
       <c r="C3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1760,8 +1814,11 @@
       <c r="C4">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1771,8 +1828,11 @@
       <c r="C5">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1782,8 +1842,11 @@
       <c r="C6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1792,6 +1855,9 @@
       </c>
       <c r="C7">
         <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/cgam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AA665-1EFA-4CAC-A36E-B633FCFB8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{3A0AA665-1EFA-4CAC-A36E-B633FCFB8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E06B2D-D1D0-4F0C-ABA8-922F32F9E2BA}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2070" windowWidth="18510" windowHeight="12270" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="375" windowWidth="17265" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>B4-B5</t>
   </si>
   <si>
-    <t>HEAT</t>
-  </si>
-  <si>
     <t>HRSG</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>CGAMR</t>
+  </si>
+  <si>
+    <t>PHTR</t>
   </si>
 </sst>
 </file>
@@ -408,44 +408,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>408326</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104193</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B79370F-9B04-6E67-3F4A-42599C3BECFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1085850" y="19050"/>
-          <a:ext cx="9990476" cy="4657143"/>
+          <a:off x="6724650" y="238125"/>
+          <a:ext cx="8667750" cy="4895850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -741,8 +758,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,16 +787,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,10 +807,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +818,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,25 +832,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +863,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +882,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -945,7 +962,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -953,7 +970,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -961,7 +978,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -989,7 +1006,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1045,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1065,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1073,16 +1090,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1090,16 +1107,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1107,19 +1124,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1157,25 +1174,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="274" zoomScaleNormal="274" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1552,18 +1569,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1572,12 +1589,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1586,12 +1603,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1600,12 +1617,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1614,12 +1631,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1628,12 +1645,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1642,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1673,7 +1690,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -1701,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0424D38F-6EEF-4C06-8E7D-096692D2563F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1712,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1758,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.08</v>
@@ -1756,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,18 +1787,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1795,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>3.6</v>
@@ -1809,7 +1826,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>32.5</v>
@@ -1823,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -1834,10 +1851,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1848,10 +1865,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>29</v>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/cgam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{3A0AA665-1EFA-4CAC-A36E-B633FCFB8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E06B2D-D1D0-4F0C-ABA8-922F32F9E2BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A7FB0-591A-4EBC-B9DF-5B64C315E597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="375" windowWidth="17265" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>Combustor</t>
   </si>
   <si>
-    <t>B4-B3</t>
-  </si>
-  <si>
     <t>PRODUCTIVE</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>PHTR</t>
+  </si>
+  <si>
+    <t>NG+B3</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I10" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -787,16 +787,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -818,13 +818,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,25 +832,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,98 +1045,98 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1174,25 +1174,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1569,18 +1569,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1589,12 +1589,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1603,12 +1603,12 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1617,12 +1617,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1631,12 +1631,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1645,12 +1645,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1659,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0.08</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0.08</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0.08</v>
@@ -1787,18 +1787,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1812,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>3.6</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>32.5</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>29</v>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A7FB0-591A-4EBC-B9DF-5B64C315E597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E24BE5-E552-47B0-8ADC-639EBA85A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="630" windowWidth="26970" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <sheet name="ResourcesCost" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$14</definedName>
+    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$13</definedName>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
-    <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
+    <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$13</definedName>
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$1</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>key</t>
   </si>
@@ -136,12 +136,6 @@
     <t>B7</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>OUTPUT</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>B6-B7</t>
   </si>
   <si>
-    <t>B9-B8</t>
-  </si>
-  <si>
     <t>STCK</t>
   </si>
   <si>
@@ -304,12 +295,6 @@
     <t>ECMP84</t>
   </si>
   <si>
-    <t>RP84</t>
-  </si>
-  <si>
-    <t>PINCH10</t>
-  </si>
-  <si>
     <t>WC+WN</t>
   </si>
   <si>
@@ -329,15 +314,37 @@
   </si>
   <si>
     <t>NG+B3</t>
+  </si>
+  <si>
+    <t>QV</t>
+  </si>
+  <si>
+    <t>TRB</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>RP8</t>
+  </si>
+  <si>
+    <t>PINCH15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -382,11 +389,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,16 +796,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,13 +813,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -818,39 +827,39 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +891,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -946,42 +955,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +994,7 @@
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B13 B14 B2</xm:sqref>
+          <xm:sqref>B2:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1006,7 +1007,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1039,104 +1040,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1158,392 +1159,364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="str">
+        <f>Flows!A1</f>
+        <v>key</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
         <f>Flows!A2</f>
         <v>NG</v>
       </c>
-      <c r="B2">
-        <v>82.710999999999999</v>
-      </c>
-      <c r="C2">
-        <v>83.674000000000007</v>
-      </c>
-      <c r="D2">
-        <v>83.963999999999999</v>
-      </c>
-      <c r="E2">
-        <v>83.688000000000002</v>
-      </c>
-      <c r="F2">
-        <v>82.710999999999999</v>
-      </c>
-      <c r="G2">
-        <v>82.710999999999999</v>
-      </c>
-      <c r="H2">
-        <v>82.710999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="B2" s="5">
+        <v>72465</v>
+      </c>
+      <c r="C2" s="5">
+        <v>73327</v>
+      </c>
+      <c r="D2" s="5">
+        <v>73600</v>
+      </c>
+      <c r="E2" s="5">
+        <v>73297</v>
+      </c>
+      <c r="F2" s="5">
+        <v>72283</v>
+      </c>
+      <c r="G2" s="5">
+        <v>72465</v>
+      </c>
+      <c r="H2" s="5">
+        <v>72465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
         <f>Flows!A3</f>
         <v>B1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
         <f>Flows!A4</f>
         <v>B2</v>
       </c>
-      <c r="B4">
-        <v>28.510999999999999</v>
-      </c>
-      <c r="C4">
-        <v>29.338000000000001</v>
-      </c>
-      <c r="D4">
-        <v>29.096</v>
-      </c>
-      <c r="E4">
-        <v>29.062999999999999</v>
-      </c>
-      <c r="F4">
-        <v>28.311</v>
-      </c>
-      <c r="G4">
-        <v>28.510999999999999</v>
-      </c>
-      <c r="H4">
-        <v>28.510999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="B4" s="5">
+        <v>28651</v>
+      </c>
+      <c r="C4" s="5">
+        <v>29507</v>
+      </c>
+      <c r="D4" s="5">
+        <v>29337</v>
+      </c>
+      <c r="E4" s="5">
+        <v>29196</v>
+      </c>
+      <c r="F4" s="5">
+        <v>27863</v>
+      </c>
+      <c r="G4" s="5">
+        <v>28651</v>
+      </c>
+      <c r="H4" s="5">
+        <v>28651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="str">
         <f>Flows!A5</f>
         <v>B3</v>
       </c>
-      <c r="B5">
-        <v>47.246000000000002</v>
-      </c>
-      <c r="C5">
-        <v>47.84</v>
-      </c>
-      <c r="D5">
-        <v>48.499000000000002</v>
-      </c>
-      <c r="E5">
-        <v>47.89</v>
-      </c>
-      <c r="F5">
-        <v>47.363999999999997</v>
-      </c>
-      <c r="G5">
-        <v>47.246000000000002</v>
-      </c>
-      <c r="H5">
-        <v>47.246000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="B5" s="5">
+        <v>50339</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50896</v>
+      </c>
+      <c r="D5" s="5">
+        <v>51926</v>
+      </c>
+      <c r="E5" s="5">
+        <v>51018</v>
+      </c>
+      <c r="F5" s="5">
+        <v>51048</v>
+      </c>
+      <c r="G5" s="5">
+        <v>50339</v>
+      </c>
+      <c r="H5" s="5">
+        <v>50339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="str">
         <f>Flows!A6</f>
         <v>B4</v>
       </c>
-      <c r="B6">
-        <v>104.268</v>
-      </c>
-      <c r="C6">
-        <v>105.253</v>
-      </c>
-      <c r="D6">
-        <v>106.398</v>
-      </c>
-      <c r="E6">
-        <v>105.58799999999999</v>
-      </c>
-      <c r="F6">
-        <v>104.389</v>
-      </c>
-      <c r="G6">
-        <v>104.268</v>
-      </c>
-      <c r="H6">
-        <v>104.268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="B6" s="5">
+        <v>102530</v>
+      </c>
+      <c r="C6" s="5">
+        <v>103462</v>
+      </c>
+      <c r="D6" s="5">
+        <v>104971</v>
+      </c>
+      <c r="E6" s="5">
+        <v>103813</v>
+      </c>
+      <c r="F6" s="5">
+        <v>103163</v>
+      </c>
+      <c r="G6" s="5">
+        <v>102530</v>
+      </c>
+      <c r="H6" s="5">
+        <v>102530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
         <f>Flows!A7</f>
         <v>B5</v>
       </c>
-      <c r="B7">
-        <v>40.496000000000002</v>
-      </c>
-      <c r="C7">
-        <v>40.502000000000002</v>
-      </c>
-      <c r="D7">
-        <v>41.747</v>
-      </c>
-      <c r="E7">
-        <v>41.009</v>
-      </c>
-      <c r="F7">
-        <v>40.840000000000003</v>
-      </c>
-      <c r="G7">
-        <v>40.496000000000002</v>
-      </c>
-      <c r="H7">
-        <v>40.496000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="B7" s="5">
+        <v>38810</v>
+      </c>
+      <c r="C7" s="5">
+        <v>38735</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40230</v>
+      </c>
+      <c r="E7" s="5">
+        <v>39295</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40324</v>
+      </c>
+      <c r="G7" s="5">
+        <v>38810</v>
+      </c>
+      <c r="H7" s="5">
+        <v>38810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="str">
         <f>Flows!A8</f>
         <v>B6</v>
       </c>
-      <c r="B8">
-        <v>19.556999999999999</v>
-      </c>
-      <c r="C8">
-        <v>19.815000000000001</v>
-      </c>
-      <c r="D8">
-        <v>20.064</v>
-      </c>
-      <c r="E8">
-        <v>19.986000000000001</v>
-      </c>
-      <c r="F8">
-        <v>19.532</v>
-      </c>
-      <c r="G8">
-        <v>19.556999999999999</v>
-      </c>
-      <c r="H8">
-        <v>19.556999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="B8" s="5">
+        <v>14784</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15021</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15213</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15137</v>
+      </c>
+      <c r="F8" s="5">
+        <v>14597</v>
+      </c>
+      <c r="G8" s="5">
+        <v>14784</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="str">
         <f>Flows!A9</f>
         <v>B7</v>
       </c>
-      <c r="B9">
-        <v>2.0920000000000001</v>
-      </c>
-      <c r="C9">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="D9">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="E9">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="F9">
-        <v>2.11</v>
-      </c>
-      <c r="G9">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="H9">
-        <v>19.556999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="B9" s="5">
+        <v>2122</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2230</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2156</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2112</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2228</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2353</v>
+      </c>
+      <c r="H9" s="5">
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="str">
         <f>Flows!A10</f>
-        <v>B8</v>
-      </c>
-      <c r="B10">
+        <v>WC</v>
+      </c>
+      <c r="B10" s="5">
+        <v>31105</v>
+      </c>
+      <c r="C10" s="5">
+        <v>32033</v>
+      </c>
+      <c r="D10" s="5">
+        <v>31849</v>
+      </c>
+      <c r="E10" s="5">
+        <v>31869</v>
+      </c>
+      <c r="F10" s="5">
+        <v>30295</v>
+      </c>
+      <c r="G10" s="5">
+        <v>31105</v>
+      </c>
+      <c r="H10" s="5">
+        <v>31105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="str">
+        <f>Flows!A11</f>
+        <v>WN</v>
+      </c>
+      <c r="B11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="5">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="str">
+        <f>Flows!A12</f>
+        <v>QV</v>
+      </c>
+      <c r="B12" s="5">
+        <v>9302.57</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9403.36</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9590.9699999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9564.02</v>
+      </c>
+      <c r="F12" s="5">
+        <v>9097</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9038.1200000000008</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Flows!A11</f>
-        <v>B9</v>
-      </c>
-      <c r="B11">
-        <v>12.625999999999999</v>
-      </c>
-      <c r="C11">
-        <v>12.744999999999999</v>
-      </c>
-      <c r="D11">
-        <v>12.97</v>
-      </c>
-      <c r="E11">
-        <v>12.930999999999999</v>
-      </c>
-      <c r="F11">
-        <v>12.599</v>
-      </c>
-      <c r="G11">
-        <v>12.512</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Flows!A12</f>
-        <v>WN</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
         <f>Flows!A13</f>
-        <v>WC</v>
-      </c>
-      <c r="B13">
-        <v>31.096</v>
-      </c>
-      <c r="C13">
-        <v>31.998000000000001</v>
-      </c>
-      <c r="D13">
-        <v>31.734000000000002</v>
-      </c>
-      <c r="E13">
-        <v>31.87</v>
-      </c>
-      <c r="F13">
-        <v>30.890999999999998</v>
-      </c>
-      <c r="G13">
-        <v>31.096</v>
-      </c>
-      <c r="H13">
-        <v>31.096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Flows!A14</f>
         <v>QG</v>
       </c>
-      <c r="B14">
-        <v>2.0920000000000001</v>
-      </c>
-      <c r="C14">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="D14">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="E14">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="F14">
-        <v>2.11</v>
-      </c>
-      <c r="G14">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="H14">
-        <v>19.556999999999999</v>
+      <c r="B13" s="5">
+        <v>2122</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2230</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2156</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2112</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2228</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2353</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14784</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1529,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,46 +1542,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1617,12 +1590,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1631,12 +1604,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1645,12 +1618,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1659,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1690,27 +1663,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
-          <x14:formula1>
-            <xm:f>Validate!$C$2:$C$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1729,12 +1690,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0.76</v>
@@ -1742,7 +1703,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.08</v>
@@ -1750,7 +1711,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0.08</v>
@@ -1758,7 +1719,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>0.08</v>
@@ -1774,7 +1735,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,91 +1748,91 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="D3">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>32.5</v>
+        <v>3.25</v>
       </c>
       <c r="D4">
-        <v>32.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E24BE5-E552-47B0-8ADC-639EBA85A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E627384F-4DA7-4D16-A5DB-B4B24E215E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="630" windowWidth="26970" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="3975" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>key</t>
   </si>
@@ -160,18 +160,12 @@
     <t>PRODUCTIVE</t>
   </si>
   <si>
-    <t>COMP</t>
-  </si>
-  <si>
     <t>Compressor</t>
   </si>
   <si>
     <t>B2-B1</t>
   </si>
   <si>
-    <t>TURB</t>
-  </si>
-  <si>
     <t>Turbine</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
     <t>CGAMR</t>
   </si>
   <si>
-    <t>PHTR</t>
-  </si>
-  <si>
     <t>NG+B3</t>
   </si>
   <si>
@@ -329,6 +320,9 @@
   </si>
   <si>
     <t>PINCH15</t>
+  </si>
+  <si>
+    <t>APH</t>
   </si>
 </sst>
 </file>
@@ -796,16 +790,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,10 +810,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +821,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,25 +835,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +885,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -955,7 +949,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -963,7 +957,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -971,7 +965,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -979,7 +973,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1007,7 +1001,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1057,16 +1051,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1074,16 +1068,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1091,16 +1085,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1108,16 +1102,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1125,19 +1119,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1174,25 +1170,25 @@
         <v>key</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1201,25 +1197,25 @@
         <v>NG</v>
       </c>
       <c r="B2" s="5">
-        <v>72465</v>
+        <v>72.465000000000003</v>
       </c>
       <c r="C2" s="5">
-        <v>73327</v>
+        <v>73.326999999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>73600</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E2" s="5">
-        <v>73297</v>
+        <v>73.296999999999997</v>
       </c>
       <c r="F2" s="5">
-        <v>72283</v>
+        <v>72.283000000000001</v>
       </c>
       <c r="G2" s="5">
-        <v>72465</v>
+        <v>72.465000000000003</v>
       </c>
       <c r="H2" s="5">
-        <v>72465</v>
+        <v>72.465000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1255,25 +1251,25 @@
         <v>B2</v>
       </c>
       <c r="B4" s="5">
-        <v>28651</v>
+        <v>28.651</v>
       </c>
       <c r="C4" s="5">
-        <v>29507</v>
+        <v>29.507000000000001</v>
       </c>
       <c r="D4" s="5">
-        <v>29337</v>
+        <v>29.337</v>
       </c>
       <c r="E4" s="5">
-        <v>29196</v>
+        <v>29.196000000000002</v>
       </c>
       <c r="F4" s="5">
-        <v>27863</v>
+        <v>27.863</v>
       </c>
       <c r="G4" s="5">
-        <v>28651</v>
+        <v>28.651</v>
       </c>
       <c r="H4" s="5">
-        <v>28651</v>
+        <v>28.651</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1282,25 +1278,25 @@
         <v>B3</v>
       </c>
       <c r="B5" s="5">
-        <v>50339</v>
+        <v>50.338999999999999</v>
       </c>
       <c r="C5" s="5">
-        <v>50896</v>
+        <v>50.896000000000001</v>
       </c>
       <c r="D5" s="5">
-        <v>51926</v>
+        <v>51.926000000000002</v>
       </c>
       <c r="E5" s="5">
-        <v>51018</v>
+        <v>51.018000000000001</v>
       </c>
       <c r="F5" s="5">
-        <v>51048</v>
+        <v>51.048000000000002</v>
       </c>
       <c r="G5" s="5">
-        <v>50339</v>
+        <v>50.338999999999999</v>
       </c>
       <c r="H5" s="5">
-        <v>50339</v>
+        <v>50.338999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1309,25 +1305,25 @@
         <v>B4</v>
       </c>
       <c r="B6" s="5">
-        <v>102530</v>
+        <v>102.53</v>
       </c>
       <c r="C6" s="5">
-        <v>103462</v>
+        <v>103.462</v>
       </c>
       <c r="D6" s="5">
-        <v>104971</v>
+        <v>104.971</v>
       </c>
       <c r="E6" s="5">
-        <v>103813</v>
+        <v>103.813</v>
       </c>
       <c r="F6" s="5">
-        <v>103163</v>
+        <v>103.163</v>
       </c>
       <c r="G6" s="5">
-        <v>102530</v>
+        <v>102.53</v>
       </c>
       <c r="H6" s="5">
-        <v>102530</v>
+        <v>102.53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1336,25 +1332,25 @@
         <v>B5</v>
       </c>
       <c r="B7" s="5">
-        <v>38810</v>
+        <v>38.81</v>
       </c>
       <c r="C7" s="5">
-        <v>38735</v>
+        <v>38.734999999999999</v>
       </c>
       <c r="D7" s="5">
-        <v>40230</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="E7" s="5">
-        <v>39295</v>
+        <v>39.295000000000002</v>
       </c>
       <c r="F7" s="5">
-        <v>40324</v>
+        <v>40.323999999999998</v>
       </c>
       <c r="G7" s="5">
-        <v>38810</v>
+        <v>38.81</v>
       </c>
       <c r="H7" s="5">
-        <v>38810</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1363,25 +1359,25 @@
         <v>B6</v>
       </c>
       <c r="B8" s="5">
-        <v>14784</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="C8" s="5">
-        <v>15021</v>
+        <v>15.021000000000001</v>
       </c>
       <c r="D8" s="5">
-        <v>15213</v>
+        <v>15.212999999999999</v>
       </c>
       <c r="E8" s="5">
-        <v>15137</v>
+        <v>15.137</v>
       </c>
       <c r="F8" s="5">
-        <v>14597</v>
+        <v>14.597</v>
       </c>
       <c r="G8" s="5">
-        <v>14784</v>
+        <v>14.784000000000001</v>
       </c>
       <c r="H8" s="5">
-        <v>14784</v>
+        <v>14.784000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1390,25 +1386,25 @@
         <v>B7</v>
       </c>
       <c r="B9" s="5">
-        <v>2122</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="C9" s="5">
-        <v>2230</v>
+        <v>2.23</v>
       </c>
       <c r="D9" s="5">
-        <v>2156</v>
+        <v>2.1560000000000001</v>
       </c>
       <c r="E9" s="5">
-        <v>2112</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="F9" s="5">
-        <v>2228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="G9" s="5">
-        <v>2353</v>
+        <v>2.3530000000000002</v>
       </c>
       <c r="H9" s="5">
-        <v>14784</v>
+        <v>14.784000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1417,25 +1413,25 @@
         <v>WC</v>
       </c>
       <c r="B10" s="5">
-        <v>31105</v>
+        <v>31.105</v>
       </c>
       <c r="C10" s="5">
-        <v>32033</v>
+        <v>32.033000000000001</v>
       </c>
       <c r="D10" s="5">
-        <v>31849</v>
+        <v>31.849</v>
       </c>
       <c r="E10" s="5">
-        <v>31869</v>
+        <v>31.869</v>
       </c>
       <c r="F10" s="5">
-        <v>30295</v>
+        <v>30.295000000000002</v>
       </c>
       <c r="G10" s="5">
-        <v>31105</v>
+        <v>31.105</v>
       </c>
       <c r="H10" s="5">
-        <v>31105</v>
+        <v>31.105</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1444,25 +1440,25 @@
         <v>WN</v>
       </c>
       <c r="B11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5">
-        <v>30000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1471,22 +1467,22 @@
         <v>QV</v>
       </c>
       <c r="B12" s="5">
-        <v>9302.57</v>
+        <v>9.3025699999999993</v>
       </c>
       <c r="C12" s="5">
-        <v>9403.36</v>
+        <v>9.4033600000000011</v>
       </c>
       <c r="D12" s="5">
-        <v>9590.9699999999993</v>
+        <v>9.5909699999999987</v>
       </c>
       <c r="E12" s="5">
-        <v>9564.02</v>
+        <v>9.5640200000000011</v>
       </c>
       <c r="F12" s="5">
-        <v>9097</v>
+        <v>9.0969999999999995</v>
       </c>
       <c r="G12" s="5">
-        <v>9038.1200000000008</v>
+        <v>9.038120000000001</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -1498,25 +1494,25 @@
         <v>QG</v>
       </c>
       <c r="B13" s="5">
-        <v>2122</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="C13" s="5">
-        <v>2230</v>
+        <v>2.23</v>
       </c>
       <c r="D13" s="5">
-        <v>2156</v>
+        <v>2.1560000000000001</v>
       </c>
       <c r="E13" s="5">
-        <v>2112</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="F13" s="5">
-        <v>2228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="G13" s="5">
-        <v>2353</v>
+        <v>2.3530000000000002</v>
       </c>
       <c r="H13" s="5">
-        <v>14784</v>
+        <v>14.784000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1525,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,46 +1538,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1590,12 +1586,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1604,26 +1600,26 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1632,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1663,10 +1659,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1676,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1699,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>0.08</v>
@@ -1711,7 +1707,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>0.08</v>
@@ -1719,7 +1715,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0.08</v>
@@ -1734,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,23 +1744,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <f>C2</f>
         <v>3</v>
       </c>
     </row>
@@ -1773,66 +1770,70 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>0.36</v>
+        <f t="shared" ref="D3:D6" si="0">C3</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="D4">
-        <v>3.25</v>
+        <f t="shared" si="0"/>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>4.5999999999999996</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4.5999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1842,7 +1843,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Validate!$D$2:$D$3</xm:f>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E627384F-4DA7-4D16-A5DB-B4B24E215E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{695192C5-79F5-40B0-AC1A-603F2B1D5852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3975" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1920" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -329,7 +329,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +343,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,13 +393,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,7 +1170,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,12 +1676,24 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75FA976D-B61E-4016-9853-EF6087F76BAC}">
+          <x14:formula1>
+            <xm:f>Validate!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1676,7 +1702,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,32 +1719,32 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>0.76</v>
+      <c r="B2" s="7">
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3">
-        <v>0.08</v>
+      <c r="B3" s="7">
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4">
-        <v>0.08</v>
+      <c r="B4" s="7">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B5">
-        <v>0.08</v>
+      <c r="B5" s="7">
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1757,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,12 +1783,12 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" s="6">
+        <v>30</v>
       </c>
       <c r="D2">
         <f>C2</f>
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,12 +1798,12 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3">
-        <v>0.6</v>
+      <c r="C3" s="6">
+        <v>3.6</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">C3</f>
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,12 +1813,12 @@
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4">
-        <v>5.8</v>
+      <c r="C4" s="6">
+        <v>32.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,12 +1828,12 @@
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5">
-        <v>8</v>
+      <c r="C5" s="6">
+        <v>46</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,12 +1843,12 @@
       <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6">
-        <v>3.5</v>
+      <c r="C6" s="6">
+        <v>20</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,8 +1858,8 @@
       <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
-        <v>7.5</v>
+      <c r="C7" s="6">
+        <v>35</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1841,9 +1867,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Validate!$D$2:$D$3</xm:f>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695192C5-79F5-40B0-AC1A-603F2B1D5852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281ADAF2-F17F-4DFF-A6CF-87CEC341B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1920" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27840" windowHeight="14325" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>key</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>APH</t>
+  </si>
+  <si>
+    <t>noAPH</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1181,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="str">
         <f>Flows!A1</f>
         <v>key</v>
@@ -1204,8 +1207,11 @@
       <c r="H1" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>Flows!A2</f>
         <v>NG</v>
@@ -1231,8 +1237,11 @@
       <c r="H2" s="5">
         <v>72.465000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="5">
+        <v>97.896000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>Flows!A3</f>
         <v>B1</v>
@@ -1258,8 +1267,11 @@
       <c r="H3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>Flows!A4</f>
         <v>B2</v>
@@ -1285,8 +1297,11 @@
       <c r="H4" s="5">
         <v>28.651</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="5">
+        <v>25.140999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>Flows!A5</f>
         <v>B3</v>
@@ -1312,8 +1327,11 @@
       <c r="H5" s="5">
         <v>50.338999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="5">
+        <v>25.140999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>Flows!A6</f>
         <v>B4</v>
@@ -1339,8 +1357,11 @@
       <c r="H6" s="5">
         <v>102.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="5">
+        <v>91.046000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>Flows!A7</f>
         <v>B5</v>
@@ -1366,8 +1387,11 @@
       <c r="H7" s="5">
         <v>38.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="5">
+        <v>31.210999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>Flows!A8</f>
         <v>B6</v>
@@ -1393,8 +1417,11 @@
       <c r="H8" s="5">
         <v>14.784000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="5">
+        <v>31.210999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>Flows!A9</f>
         <v>B7</v>
@@ -1420,8 +1447,11 @@
       <c r="H9" s="5">
         <v>14.784000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="5">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>Flows!A10</f>
         <v>WC</v>
@@ -1447,8 +1477,11 @@
       <c r="H10" s="5">
         <v>31.105</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="5">
+        <v>27.294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>Flows!A11</f>
         <v>WN</v>
@@ -1474,8 +1507,11 @@
       <c r="H11" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>Flows!A12</f>
         <v>QV</v>
@@ -1501,8 +1537,11 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="5">
+        <v>22.391999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>Flows!A13</f>
         <v>QG</v>
@@ -1528,9 +1567,13 @@
       <c r="H13" s="5">
         <v>14.784000000000001</v>
       </c>
+      <c r="I13" s="5">
+        <v>1.429</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1538,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1608,7 +1651,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1756,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281ADAF2-F17F-4DFF-A6CF-87CEC341B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB48F4-EB9A-4D7B-971B-3796A8EC6E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27840" windowHeight="14325" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>key</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>MANUAL</t>
-  </si>
-  <si>
-    <t>WASTES</t>
   </si>
   <si>
     <t>COST</t>
@@ -797,7 +794,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +813,7 @@
         <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,7 +841,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +854,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -865,7 +862,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +899,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -966,7 +963,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -990,7 +987,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1057,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1068,13 +1065,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -1085,7 +1082,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1094,7 +1091,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1102,16 +1099,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1128,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1145,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1187,28 +1184,28 @@
         <v>key</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1581,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1716,7 +1713,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -1755,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1765,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7">
         <v>9.2999999999999999E-2</v>
@@ -1776,7 +1773,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7">
         <v>0.05</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7">
         <v>8.8999999999999996E-2</v>
@@ -1813,18 +1810,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6">
         <v>30</v>
@@ -1839,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6">
         <v>3.6</v>
@@ -1851,10 +1848,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6">
         <v>32.5</v>
@@ -1866,10 +1863,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6">
         <v>46</v>
@@ -1881,10 +1878,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6">
         <v>20</v>
@@ -1899,7 +1896,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6">
         <v>35</v>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB48F4-EB9A-4D7B-971B-3796A8EC6E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B469F-8364-42D0-A704-229AE598FAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B469F-8364-42D0-A704-229AE598FAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60B55C-546B-4555-87CF-2751A50BD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -425,23 +425,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B79370F-9B04-6E67-3F4A-42599C3BECFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219CC748-CE35-DEB8-081F-C60F1190D884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,8 +464,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6724650" y="238125"/>
-          <a:ext cx="8667750" cy="4895850"/>
+          <a:off x="371475" y="514350"/>
+          <a:ext cx="9020175" cy="5076825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,8 +1234,8 @@
       <c r="H2" s="5">
         <v>72.465000000000003</v>
       </c>
-      <c r="I2" s="5">
-        <v>97.896000000000001</v>
+      <c r="I2">
+        <v>109.913</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
       <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
@@ -1294,8 +1294,8 @@
       <c r="H4" s="5">
         <v>28.651</v>
       </c>
-      <c r="I4" s="5">
-        <v>25.140999999999998</v>
+      <c r="I4">
+        <v>28.228000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1324,8 +1324,8 @@
       <c r="H5" s="5">
         <v>50.338999999999999</v>
       </c>
-      <c r="I5" s="5">
-        <v>25.140999999999998</v>
+      <c r="I5">
+        <v>28.228000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1354,8 +1354,8 @@
       <c r="H6" s="5">
         <v>102.53</v>
       </c>
-      <c r="I6" s="5">
-        <v>91.046000000000006</v>
+      <c r="I6">
+        <v>101.759</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1384,8 +1384,8 @@
       <c r="H7" s="5">
         <v>38.81</v>
       </c>
-      <c r="I7" s="5">
-        <v>31.210999999999999</v>
+      <c r="I7">
+        <v>38.518000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1414,8 +1414,8 @@
       <c r="H8" s="5">
         <v>14.784000000000001</v>
       </c>
-      <c r="I8" s="5">
-        <v>31.210999999999999</v>
+      <c r="I8">
+        <v>38.518000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1444,8 +1444,8 @@
       <c r="H9" s="5">
         <v>14.784000000000001</v>
       </c>
-      <c r="I9" s="5">
-        <v>1.429</v>
+      <c r="I9">
+        <v>1.6679999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1474,8 +1474,8 @@
       <c r="H10" s="5">
         <v>31.105</v>
       </c>
-      <c r="I10" s="5">
-        <v>27.294</v>
+      <c r="I10">
+        <v>30.645</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
       <c r="H11" s="5">
         <v>30</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>30</v>
       </c>
     </row>
@@ -1534,8 +1534,8 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
-        <v>22.391999999999999</v>
+      <c r="I12">
+        <v>22.213000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1564,8 +1564,8 @@
       <c r="H13" s="5">
         <v>14.784000000000001</v>
       </c>
-      <c r="I13" s="5">
-        <v>1.429</v>
+      <c r="I13">
+        <v>1.6679999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>

--- a/Examples/cgam/cgam_model.xlsx
+++ b/Examples/cgam/cgam_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60B55C-546B-4555-87CF-2751A50BD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526E358A-F5E8-460D-9941-D5EA7D3DC231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$13</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$7</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$13</definedName>
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$1</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>key</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>noAPH</t>
+  </si>
+  <si>
+    <t>recycle</t>
   </si>
 </sst>
 </file>
@@ -1015,18 +1018,17 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1043,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -1060,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,7 +1070,7 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -1077,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1087,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1094,7 +1096,7 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,7 +1104,7 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -1111,7 +1113,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1128,7 +1130,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1145,7 +1147,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1159,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1578,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1692,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,20 +1705,26 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1750,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
